--- a/medicine/Handicap/Special_Olympics/Special_Olympics.xlsx
+++ b/medicine/Handicap/Special_Olympics/Special_Olympics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Special Olympics est une organisation sportive organisant la formation et des concours pour des enfants et adultes ayant une déficience intellectuelle. Ces compétitions comprennent les Jeux olympiques spéciaux, qui alternent entre les Jeux d'été et d'hiver.
 Comme le Comité international paralympique (CIP), Special Olympics est reconnu par le Comité international olympique (CIO).
